--- a/doc/thesis/pictures/resultate/loesung2/variante0/resultate_mit_byte.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante0/resultate_mit_byte.xlsx
@@ -20,9 +20,6 @@
   </si>
   <si>
     <t>standard deviation (Meters)</t>
-  </si>
-  <si>
-    <t>Lösung 0</t>
   </si>
   <si>
     <t>Max error</t>
@@ -49,7 +46,10 @@
     <t>Konstant</t>
   </si>
   <si>
-    <t>Lösung 1</t>
+    <t>Lösung DCT</t>
+  </si>
+  <si>
+    <t>A. Subsampling</t>
   </si>
 </sst>
 </file>
@@ -133,7 +133,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lösung 0</c:v>
+                  <c:v>A. Subsampling</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -200,7 +200,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lösung 1</c:v>
+                  <c:v>Lösung DCT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -669,11 +669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411764560"/>
-        <c:axId val="411763776"/>
+        <c:axId val="268441136"/>
+        <c:axId val="268444272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="411764560"/>
+        <c:axId val="268441136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -797,13 +797,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411763776"/>
+        <c:crossAx val="268444272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411763776"/>
+        <c:axId val="268444272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +916,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411764560"/>
+        <c:crossAx val="268441136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1910,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,31 +1927,31 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>4</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -2039,7 +2039,7 @@
         <v>74.187416666666707</v>
       </c>
       <c r="AB3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD3">
         <v>5802769.2857510503</v>

--- a/doc/thesis/pictures/resultate/loesung2/variante0/resultate_mit_byte.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante0/resultate_mit_byte.xlsx
@@ -669,13 +669,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268441136"/>
-        <c:axId val="268444272"/>
+        <c:axId val="267044160"/>
+        <c:axId val="267045336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268441136"/>
+        <c:axId val="267044160"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
         </c:scaling>
@@ -797,13 +797,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268444272"/>
+        <c:crossAx val="267045336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268444272"/>
+        <c:axId val="267045336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +915,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268441136"/>
+        <c:crossAx val="267044160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>

--- a/doc/thesis/pictures/resultate/loesung2/variante0/resultate_mit_byte.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante0/resultate_mit_byte.xlsx
@@ -669,11 +669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267044160"/>
-        <c:axId val="267045336"/>
+        <c:axId val="239272920"/>
+        <c:axId val="239271744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267044160"/>
+        <c:axId val="239272920"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -704,10 +704,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -715,16 +712,28 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Median </a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Bytes pro Feldlinie</a:t>
                 </a:r>
               </a:p>
@@ -746,10 +755,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -784,10 +790,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -797,12 +800,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267045336"/>
+        <c:crossAx val="239271744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267045336"/>
+        <c:axId val="239271744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,10 +834,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -842,8 +842,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
-                  <a:t>Standardabweichung (Meter)</a:t>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Standardabweichung (KM)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -864,10 +868,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -902,10 +903,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -915,41 +913,11 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267044160"/>
+        <c:crossAx val="239272920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
       <c:spPr>
@@ -978,10 +946,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1909,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>

--- a/doc/thesis/pictures/resultate/loesung2/variante0/resultate_mit_byte.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante0/resultate_mit_byte.xlsx
@@ -263,78 +263,8 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$AD$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ist-Zustand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$AE$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>858.70933333333301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$AD$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5802769.2857510503</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$A$1</c:f>
@@ -398,7 +328,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$C$1</c:f>
@@ -462,7 +392,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$E$1</c:f>
@@ -526,7 +456,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$G$1</c:f>
@@ -593,7 +523,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$I$1</c:f>
@@ -669,11 +599,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239272920"/>
-        <c:axId val="239271744"/>
+        <c:axId val="273191456"/>
+        <c:axId val="273188712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239272920"/>
+        <c:axId val="273191456"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -800,12 +730,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239271744"/>
+        <c:crossAx val="273188712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239271744"/>
+        <c:axId val="273188712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +843,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239272920"/>
+        <c:crossAx val="273191456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -989,7 +919,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1874,7 +1804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>

--- a/doc/thesis/pictures/resultate/loesung2/variante0/resultate_mit_byte.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante0/resultate_mit_byte.xlsx
@@ -599,15 +599,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="273191456"/>
-        <c:axId val="273188712"/>
+        <c:axId val="271960392"/>
+        <c:axId val="271956080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="273191456"/>
+        <c:axId val="271960392"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="50"/>
+          <c:min val="32"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -730,12 +730,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273188712"/>
+        <c:crossAx val="271956080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="273188712"/>
+        <c:axId val="271956080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +844,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273191456"/>
+        <c:crossAx val="271960392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1804,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
